--- a/Homework_creater/config.xlsx
+++ b/Homework_creater/config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>sheet名称</t>
   </si>
@@ -43,7 +43,7 @@
     <t>style</t>
   </si>
   <si>
-    <t>templates/templte_style.txt</t>
+    <t>templates/template_style.txt</t>
   </si>
   <si>
     <t>homework_@@作业名称@@/style</t>
@@ -52,7 +52,7 @@
     <t>skill</t>
   </si>
   <si>
-    <t>templates/templte_skill.txt</t>
+    <t>templates/template_skill.txt</t>
   </si>
   <si>
     <t>homework_@@作业名称@@/skill</t>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>homework_@@作业名称@@/victory</t>
+  </si>
+  <si>
+    <t>templates/template_1&amp;2.txt</t>
+  </si>
+  <si>
+    <t>homework_@@作业名称@@/1&amp;2</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.9557522123894" customWidth="1"/>
     <col min="2" max="2" width="28.8761061946903" customWidth="1"/>
@@ -1095,6 +1101,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="homework_@@作业名称@@/victory" tooltip="mailto:homework_@@作业名称@@/victory"/>
@@ -1102,6 +1119,7 @@
     <hyperlink ref="C4" r:id="rId3" display="homework_@@作业名称@@/ttk"/>
     <hyperlink ref="C3" r:id="rId4" display="homework_@@作业名称@@/skill"/>
     <hyperlink ref="C2" r:id="rId5" display="homework_@@作业名称@@/style"/>
+    <hyperlink ref="C7" r:id="rId6" display="homework_@@作业名称@@/1&amp;2" tooltip="mailto:homework_@@作业名称@@/1&amp;2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
